--- a/data/2024_ExampleDataSet.xlsx
+++ b/data/2024_ExampleDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAran\Desktop\Files\duty\Uniss\EnhanceFAIRness_spreadsheet_to_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32398E1-BBE1-4791-BC57-9BA433F3779E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C07C9C-03A2-4C19-B2F3-5627F7E986E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,10 @@
     <sheet name="Table_D" sheetId="9" r:id="rId4"/>
     <sheet name="tables_info" sheetId="3" r:id="rId5"/>
     <sheet name="meta_references" sheetId="4" r:id="rId6"/>
-    <sheet name="DDict_tables" sheetId="5" r:id="rId7"/>
-    <sheet name="DDict_attributes" sheetId="6" r:id="rId8"/>
-    <sheet name="extra_sheet.Sheet1" sheetId="7" r:id="rId9"/>
+    <sheet name="meta_extra" sheetId="10" r:id="rId7"/>
+    <sheet name="DDict_tables" sheetId="5" r:id="rId8"/>
+    <sheet name="DDict_attributes" sheetId="6" r:id="rId9"/>
+    <sheet name="extra_sheet.Sheet1" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>Attribute_A1</t>
   </si>
@@ -373,6 +374,18 @@
   </si>
   <si>
     <t>caption</t>
+  </si>
+  <si>
+    <t>synthesis</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>This spreadsheet is an example of the template required by SS2db software.</t>
+  </si>
+  <si>
+    <t>This spreadsheet has been created for testing purpose and to help future users understanding how the software works.</t>
   </si>
 </sst>
 </file>
@@ -834,6 +847,32 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="66.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="68.25" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -6786,13 +6825,52 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B74F0E-C531-4F27-82F8-8FC611AE4338}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6934,7 +7012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7136,30 +7214,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="66.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" ht="68.25" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>